--- a/Potential_phi_Resistance_sheet.xlsx
+++ b/Potential_phi_Resistance_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="1" state="visible" r:id="rId2"/>
@@ -396,13 +396,15 @@
   </sheetPr>
   <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.53"/>
   </cols>
   <sheetData>
@@ -414,7 +416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
@@ -433,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="65.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <f aca="false">1/2*C4+(B3*F3+B5*F4)/2/(F3+F4)</f>
         <v>2.11728401684191</v>
@@ -453,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="59.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
         <f aca="false">(B4+C5)/2</f>
         <v>-0.382702121261684</v>
@@ -1699,7 +1701,7 @@
   </sheetPr>
   <dimension ref="B5:K14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
